--- a/rapport_comptable.xlsx
+++ b/rapport_comptable.xlsx
@@ -49,19 +49,19 @@
     <t>solde_cumulé</t>
   </si>
   <si>
-    <t>44566.0</t>
-  </si>
-  <si>
-    <t>512.0</t>
-  </si>
-  <si>
-    <t>411.0</t>
-  </si>
-  <si>
-    <t>606.0</t>
-  </si>
-  <si>
-    <t>601.0</t>
+    <t>44566</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>411</t>
+  </si>
+  <si>
+    <t>606</t>
+  </si>
+  <si>
+    <t>601</t>
   </si>
   <si>
     <t>Nan</t>
